--- a/www.eia.gov/electricity/monthly/xls/table_4_16.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="74">
-  <si>
-    <t>Table 4.16. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Independent Power Producers by State, October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="74">
+  <si>
+    <t>Table 4.16. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Independent Power Producers by State, November 2016</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1311,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="11">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C5" s="12">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="13">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16">
         <v>0.74</v>
@@ -1407,13 +1407,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="15">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C8" s="16">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="D8" s="17">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="11">
-        <v>1504</v>
+        <v>1394</v>
       </c>
       <c r="C12" s="12">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="D12" s="13">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="15">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="16">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="D13" s="17">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="15">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="16">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="D14" s="17">
-        <v>8.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="15">
-        <v>1399</v>
+        <v>1297</v>
       </c>
       <c r="C15" s="16">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="D15" s="17">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1663,22 +1663,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="11">
-        <v>2135</v>
+        <v>1812</v>
       </c>
       <c r="C16" s="12">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="D16" s="13">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="E16" s="11">
-        <v>2298</v>
+        <v>2323</v>
       </c>
       <c r="F16" s="12">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G16" s="13">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -1695,22 +1695,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="15">
-        <v>486</v>
+        <v>267</v>
       </c>
       <c r="C17" s="16">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="D17" s="17">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E17" s="15">
-        <v>2268</v>
+        <v>2323</v>
       </c>
       <c r="F17" s="16">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G17" s="17">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="15">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C18" s="16">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="D18" s="17">
-        <v>8.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="15">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C19" s="16">
-        <v>1.73</v>
+        <v>0.48</v>
       </c>
       <c r="D19" s="17">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="15">
-        <v>1488</v>
+        <v>1426</v>
       </c>
       <c r="C20" s="16">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="D20" s="17">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E20" s="15">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4.7</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="H20" s="15">
         <v>0</v>
@@ -2111,22 +2111,22 @@
         <v>36</v>
       </c>
       <c r="B30" s="11">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="C30" s="12">
         <v>2.91</v>
       </c>
       <c r="D30" s="13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="13">
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="D31" s="17">
+        <v>7.5</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="15">
-        <v>13</v>
-      </c>
-      <c r="C33" s="16">
-        <v>0.99</v>
-      </c>
-      <c r="D33" s="17">
-        <v>8.4</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="C35" s="16">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="D35" s="17">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="17">
+        <v>4.5999999999999996</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="15">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C38" s="16">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="D38" s="17">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="15">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="C39" s="16">
-        <v>4.07</v>
+        <v>3.87</v>
       </c>
       <c r="D39" s="17">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>11</v>
       </c>
       <c r="H40" s="11">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="I40" s="12">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J40" s="13">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2545,13 +2545,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="15">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="I43" s="16">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J43" s="17">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2591,31 +2591,31 @@
         <v>51</v>
       </c>
       <c r="B45" s="11">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C45" s="12">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="D45" s="13">
-        <v>29.5</v>
+        <v>25.8</v>
       </c>
       <c r="E45" s="11">
-        <v>3334</v>
+        <v>3566</v>
       </c>
       <c r="F45" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="13">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H45" s="11">
-        <v>2656</v>
+        <v>2448</v>
       </c>
       <c r="I45" s="12">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="J45" s="13">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
         <v>215</v>
       </c>
       <c r="F46" s="16">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="G46" s="17">
         <v>5.5</v>
@@ -2664,13 +2664,13 @@
         <v>11</v>
       </c>
       <c r="E47" s="15">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F47" s="16">
         <v>0.27</v>
       </c>
       <c r="G47" s="17">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="15">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C48" s="16">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="D48" s="17">
-        <v>29.5</v>
+        <v>25.8</v>
       </c>
       <c r="E48" s="15">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F48" s="16">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="G48" s="17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H48" s="15">
         <v>0</v>
@@ -2728,22 +2728,22 @@
         <v>11</v>
       </c>
       <c r="E49" s="15">
-        <v>2837</v>
+        <v>3064</v>
       </c>
       <c r="F49" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G49" s="17">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H49" s="15">
-        <v>2656</v>
+        <v>2448</v>
       </c>
       <c r="I49" s="16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="J49" s="17">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2760,13 +2760,13 @@
         <v>11</v>
       </c>
       <c r="E50" s="11">
-        <v>909</v>
+        <v>843</v>
       </c>
       <c r="F50" s="12">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="G50" s="13">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>11</v>
       </c>
       <c r="E54" s="15">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="F54" s="16">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="G54" s="17">
-        <v>9.6999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H54" s="15">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>11</v>
       </c>
       <c r="E55" s="15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F55" s="16">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="G55" s="17">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H55" s="15">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>11</v>
       </c>
       <c r="E59" s="11">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="F59" s="12">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="G59" s="13">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="15">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="F62" s="16">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="G62" s="17">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H62" s="15">
         <v>0</v>
@@ -3176,13 +3176,13 @@
         <v>11</v>
       </c>
       <c r="E63" s="11">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F63" s="12">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G63" s="13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H63" s="11">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>11</v>
       </c>
       <c r="E65" s="15">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F65" s="16">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G65" s="17">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H65" s="15">
         <v>0</v>
@@ -3263,31 +3263,31 @@
         <v>72</v>
       </c>
       <c r="B66" s="11">
-        <v>4840</v>
+        <v>4377</v>
       </c>
       <c r="C66" s="12">
         <v>3.18</v>
       </c>
       <c r="D66" s="13">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="E66" s="11">
-        <v>6967</v>
+        <v>7354</v>
       </c>
       <c r="F66" s="12">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="G66" s="13">
         <v>5.8</v>
       </c>
       <c r="H66" s="11">
-        <v>2839</v>
+        <v>2709</v>
       </c>
       <c r="I66" s="12">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="J66" s="13">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
